--- a/nn.xlsx
+++ b/nn.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/xx719_ic_ac_uk/Documents/文件/Code/Durchmusterung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{932B7E63-E5F9-0A4F-9BF0-EB5E998C0F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E9E3C32-1AA4-AB4F-BDEF-99FC981B48DD}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="8_{932B7E63-E5F9-0A4F-9BF0-EB5E998C0F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0163FFA5-BD86-034D-8AF3-68A229BEDC9F}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" activeTab="1" xr2:uid="{4825652F-8CE7-264F-BBCD-B1090E3E54B8}"/>
   </bookViews>
   <sheets>
-    <sheet name="old" sheetId="1" r:id="rId1"/>
-    <sheet name="new" sheetId="2" r:id="rId2"/>
+    <sheet name="new" sheetId="2" r:id="rId1"/>
+    <sheet name="old" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -412,11 +412,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C319499A-0D47-834D-AD4E-67821CE83EFC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9C20650-6DE5-034E-BB36-D22AFE34BEF6}">
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection sqref="A1:M28"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -475,10 +475,36 @@
         <v>0.85</v>
       </c>
       <c r="D3">
-        <v>10.98</v>
+        <v>20.09</v>
       </c>
       <c r="E3">
-        <v>11.2</v>
+        <v>19.29</v>
+      </c>
+      <c r="F3">
+        <v>18.71</v>
+      </c>
+      <c r="G3">
+        <v>19.73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="B4">
+        <v>0.85</v>
+      </c>
+      <c r="D4">
+        <v>15.53</v>
+      </c>
+      <c r="E4">
+        <v>16.260000000000002</v>
+      </c>
+      <c r="F4">
+        <v>15.57</v>
+      </c>
+      <c r="G4">
+        <v>15.82</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
@@ -537,12 +563,8 @@
       <c r="C22">
         <v>0.999</v>
       </c>
-      <c r="D22" s="2">
-        <v>0.08</v>
-      </c>
-      <c r="E22" s="2">
-        <v>0.08</v>
-      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -550,11 +572,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9C20650-6DE5-034E-BB36-D22AFE34BEF6}">
-  <dimension ref="A1:M22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C319499A-0D47-834D-AD4E-67821CE83EFC}">
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22:E22"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -612,65 +634,143 @@
       <c r="B3">
         <v>0.85</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="D3">
+        <v>10.98</v>
+      </c>
+      <c r="E3">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="B4">
+        <v>0.85</v>
+      </c>
+      <c r="D4">
+        <v>18.239999999999998</v>
+      </c>
+      <c r="E4">
+        <v>18.21</v>
+      </c>
+      <c r="F4">
+        <v>18.14</v>
+      </c>
+      <c r="G4">
+        <v>17.96</v>
+      </c>
+      <c r="H4">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="I4">
+        <v>17.989999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="B5">
+        <v>0.85</v>
+      </c>
+      <c r="D5">
+        <v>27.93</v>
+      </c>
+      <c r="E5">
+        <v>27.75</v>
+      </c>
+      <c r="F5">
+        <v>27.57</v>
+      </c>
+      <c r="G5">
+        <v>27.49</v>
+      </c>
+      <c r="H5">
+        <v>27.71</v>
+      </c>
+      <c r="I5">
+        <v>27.89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2E-3</v>
+      </c>
+      <c r="B6">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="B7">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D22" s="1">
         <v>1</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E22" s="1">
         <v>2</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F22" s="1">
         <v>3</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G22" s="1">
         <v>4</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H22" s="1">
         <v>5</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I22" s="1">
         <v>6</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J22" s="1">
         <v>7</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K22" s="1">
         <v>8</v>
       </c>
-      <c r="L21" s="1">
+      <c r="L22" s="1">
         <v>9</v>
       </c>
-      <c r="M21" s="1">
+      <c r="M22" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>2E-3</v>
       </c>
-      <c r="B22">
+      <c r="B23">
         <v>0.9</v>
       </c>
-      <c r="C22">
+      <c r="C23">
         <v>0.999</v>
       </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="D23" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.08</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/nn.xlsx
+++ b/nn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/xx719_ic_ac_uk/Documents/文件/Code/Durchmusterung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="8_{932B7E63-E5F9-0A4F-9BF0-EB5E998C0F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0163FFA5-BD86-034D-8AF3-68A229BEDC9F}"/>
+  <xr:revisionPtr revIDLastSave="75" documentId="8_{932B7E63-E5F9-0A4F-9BF0-EB5E998C0F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{375775EC-3266-BA44-88B9-C02BCF0555AE}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" activeTab="1" xr2:uid="{4825652F-8CE7-264F-BBCD-B1090E3E54B8}"/>
   </bookViews>
@@ -416,7 +416,7 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -505,6 +505,61 @@
       </c>
       <c r="G4">
         <v>15.82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="B5">
+        <v>0.85</v>
+      </c>
+      <c r="D5">
+        <v>6.9</v>
+      </c>
+      <c r="E5">
+        <v>8.3800000000000008</v>
+      </c>
+      <c r="F5">
+        <v>8.49</v>
+      </c>
+      <c r="G5">
+        <v>7.33</v>
+      </c>
+      <c r="H5">
+        <v>8.09</v>
+      </c>
+      <c r="I5">
+        <v>8.1300000000000008</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="B6">
+        <v>0.85</v>
+      </c>
+      <c r="D6">
+        <v>17.59</v>
+      </c>
+      <c r="E6">
+        <v>16.329999999999998</v>
+      </c>
+      <c r="F6">
+        <v>17.09</v>
+      </c>
+      <c r="G6">
+        <v>16.04</v>
+      </c>
+      <c r="H6">
+        <v>16.579999999999998</v>
+      </c>
+      <c r="I6">
+        <v>18.32</v>
+      </c>
+      <c r="J6">
+        <v>17.77</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
@@ -576,7 +631,7 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -700,6 +755,27 @@
       <c r="B6">
         <v>0.75</v>
       </c>
+      <c r="D6">
+        <v>14.81</v>
+      </c>
+      <c r="E6">
+        <v>14.74</v>
+      </c>
+      <c r="F6">
+        <v>14.81</v>
+      </c>
+      <c r="G6">
+        <v>15.1</v>
+      </c>
+      <c r="H6">
+        <v>14.78</v>
+      </c>
+      <c r="I6">
+        <v>14.85</v>
+      </c>
+      <c r="J6">
+        <v>14.78</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -707,6 +783,27 @@
       </c>
       <c r="B7">
         <v>0.75</v>
+      </c>
+      <c r="D7">
+        <v>5.27</v>
+      </c>
+      <c r="E7">
+        <v>5.31</v>
+      </c>
+      <c r="F7">
+        <v>5.27</v>
+      </c>
+      <c r="G7">
+        <v>5.42</v>
+      </c>
+      <c r="H7">
+        <v>5.31</v>
+      </c>
+      <c r="I7">
+        <v>5.24</v>
+      </c>
+      <c r="J7">
+        <v>5.46</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">

--- a/nn.xlsx
+++ b/nn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/xx719_ic_ac_uk/Documents/文件/Code/Durchmusterung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="75" documentId="8_{932B7E63-E5F9-0A4F-9BF0-EB5E998C0F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{375775EC-3266-BA44-88B9-C02BCF0555AE}"/>
+  <xr:revisionPtr revIDLastSave="127" documentId="8_{932B7E63-E5F9-0A4F-9BF0-EB5E998C0F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{594FA9E9-6B02-3740-9969-23F267FA9372}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" activeTab="1" xr2:uid="{4825652F-8CE7-264F-BBCD-B1090E3E54B8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
   <si>
     <t>SGD</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>beta_end</t>
+  </si>
+  <si>
+    <t>2pm GMT</t>
+  </si>
+  <si>
+    <t>original</t>
   </si>
 </sst>
 </file>
@@ -93,12 +99,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9C20650-6DE5-034E-BB36-D22AFE34BEF6}">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -562,64 +571,118 @@
         <v>17.77</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="B8">
+        <v>0.9</v>
+      </c>
+      <c r="D8">
+        <v>36.56</v>
+      </c>
+      <c r="E8">
+        <v>37.25</v>
+      </c>
+      <c r="F8">
+        <v>37.28</v>
+      </c>
+      <c r="G8">
+        <v>36.56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0.3</v>
+      </c>
+      <c r="B9">
+        <v>0.9</v>
+      </c>
+      <c r="D9">
+        <v>14.63</v>
+      </c>
+      <c r="E9">
+        <v>15.9</v>
+      </c>
+      <c r="F9">
+        <v>14.7</v>
+      </c>
+      <c r="G9">
+        <v>14.99</v>
+      </c>
+      <c r="H9">
+        <v>16.260000000000002</v>
+      </c>
+      <c r="I9">
+        <v>14.81</v>
+      </c>
+      <c r="J9">
+        <v>15.35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D22" s="1">
         <v>1</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E22" s="1">
         <v>2</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F22" s="1">
         <v>3</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G22" s="1">
         <v>4</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H22" s="1">
         <v>5</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I22" s="1">
         <v>6</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J22" s="1">
         <v>7</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K22" s="1">
         <v>8</v>
       </c>
-      <c r="L21" s="1">
+      <c r="L22" s="1">
         <v>9</v>
       </c>
-      <c r="M21" s="1">
+      <c r="M22" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>2E-3</v>
       </c>
-      <c r="B22">
+      <c r="B23">
         <v>0.9</v>
       </c>
-      <c r="C22">
+      <c r="C23">
         <v>0.999</v>
       </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -628,10 +691,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C319499A-0D47-834D-AD4E-67821CE83EFC}">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -806,6 +869,55 @@
         <v>5.46</v>
       </c>
     </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="B8">
+        <v>0.65</v>
+      </c>
+      <c r="D8">
+        <v>13.8</v>
+      </c>
+      <c r="E8">
+        <v>13.55</v>
+      </c>
+      <c r="F8">
+        <v>13.84</v>
+      </c>
+      <c r="G8">
+        <v>13.73</v>
+      </c>
+      <c r="H8">
+        <v>13.98</v>
+      </c>
+      <c r="I8">
+        <v>13.73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="B9">
+        <v>0.65</v>
+      </c>
+      <c r="D9">
+        <v>7.23</v>
+      </c>
+      <c r="E9">
+        <v>7.66</v>
+      </c>
+      <c r="F9">
+        <v>7.55</v>
+      </c>
+      <c r="G9">
+        <v>7.51</v>
+      </c>
+      <c r="H9">
+        <v>7.66</v>
+      </c>
+    </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
@@ -867,6 +979,85 @@
       </c>
       <c r="E23" s="2">
         <v>0.08</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>0.01</v>
+      </c>
+      <c r="B24">
+        <v>0.9</v>
+      </c>
+      <c r="C24">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>0.01</v>
+      </c>
+      <c r="B25">
+        <v>0.9</v>
+      </c>
+      <c r="C25">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2</v>
+      </c>
+      <c r="F27" s="1">
+        <v>3</v>
+      </c>
+      <c r="G27" s="1">
+        <v>4</v>
+      </c>
+      <c r="H27" s="1">
+        <v>5</v>
+      </c>
+      <c r="I27" s="1">
+        <v>6</v>
+      </c>
+      <c r="J27" s="1">
+        <v>7</v>
+      </c>
+      <c r="K27" s="1">
+        <v>8</v>
+      </c>
+      <c r="L27" s="1">
+        <v>9</v>
+      </c>
+      <c r="M27" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>1E-3</v>
+      </c>
+      <c r="D28">
+        <v>53.29</v>
+      </c>
+      <c r="E28">
+        <v>68.5</v>
       </c>
     </row>
   </sheetData>

--- a/nn.xlsx
+++ b/nn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/xx719_ic_ac_uk/Documents/文件/Code/Durchmusterung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="127" documentId="8_{932B7E63-E5F9-0A4F-9BF0-EB5E998C0F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{594FA9E9-6B02-3740-9969-23F267FA9372}"/>
+  <xr:revisionPtr revIDLastSave="140" documentId="8_{932B7E63-E5F9-0A4F-9BF0-EB5E998C0F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45C4BE5C-E568-E340-8EE8-4EE984040C09}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" activeTab="1" xr2:uid="{4825652F-8CE7-264F-BBCD-B1090E3E54B8}"/>
   </bookViews>
@@ -123,6 +123,872 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>old!$D$28:$M$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>53.29</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>68.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71.569999999999993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>72.36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>73.27</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>73.41</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-749A-614A-A4C2-BAF41A5AE28D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1589724959"/>
+        <c:axId val="1588863055"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1589724959"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1588863055"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1588863055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1589724959"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>423333</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>16933</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F249C3C7-0593-396C-32A8-E1E69CD283E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -425,7 +1291,7 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -601,7 +1467,7 @@
         <v>0.3</v>
       </c>
       <c r="B9">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="D9">
         <v>14.63</v>
@@ -623,6 +1489,15 @@
       </c>
       <c r="J9">
         <v>15.35</v>
+      </c>
+      <c r="K9">
+        <v>13.95</v>
+      </c>
+      <c r="L9">
+        <v>13.62</v>
+      </c>
+      <c r="M9">
+        <v>14.49</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
@@ -693,8 +1568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C319499A-0D47-834D-AD4E-67821CE83EFC}">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1059,8 +1934,21 @@
       <c r="E28">
         <v>68.5</v>
       </c>
+      <c r="F28">
+        <v>71.569999999999993</v>
+      </c>
+      <c r="G28">
+        <v>72.36</v>
+      </c>
+      <c r="H28">
+        <v>73.27</v>
+      </c>
+      <c r="I28">
+        <v>73.41</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/nn.xlsx
+++ b/nn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/xx719_ic_ac_uk/Documents/文件/Code/Durchmusterung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="140" documentId="8_{932B7E63-E5F9-0A4F-9BF0-EB5E998C0F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45C4BE5C-E568-E340-8EE8-4EE984040C09}"/>
+  <xr:revisionPtr revIDLastSave="142" documentId="8_{932B7E63-E5F9-0A4F-9BF0-EB5E998C0F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3A31DBF-CDE9-C745-85FF-BB5022098C82}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" activeTab="1" xr2:uid="{4825652F-8CE7-264F-BBCD-B1090E3E54B8}"/>
   </bookViews>
@@ -70,13 +70,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -99,12 +105,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -213,6 +220,12 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>73.41</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>74.459999999999994</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>74.709999999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1438,12 +1451,12 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+      <c r="A8" s="4">
         <v>0.2</v>
       </c>
       <c r="B8">
@@ -1569,7 +1582,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1924,7 +1937,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1E-3</v>
       </c>
@@ -1945,6 +1958,12 @@
       </c>
       <c r="I28">
         <v>73.41</v>
+      </c>
+      <c r="J28">
+        <v>74.459999999999994</v>
+      </c>
+      <c r="K28" s="3">
+        <v>74.709999999999994</v>
       </c>
     </row>
   </sheetData>

--- a/nn.xlsx
+++ b/nn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/xx719_ic_ac_uk/Documents/文件/Code/Durchmusterung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="142" documentId="8_{932B7E63-E5F9-0A4F-9BF0-EB5E998C0F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3A31DBF-CDE9-C745-85FF-BB5022098C82}"/>
+  <xr:revisionPtr revIDLastSave="145" documentId="8_{932B7E63-E5F9-0A4F-9BF0-EB5E998C0F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9BDE4B2-E766-8840-8C77-0D51395ADF51}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" activeTab="1" xr2:uid="{4825652F-8CE7-264F-BBCD-B1090E3E54B8}"/>
   </bookViews>
@@ -70,19 +70,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FFD4D4D4"/>
-      <name val="Menlo"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -105,13 +99,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -226,6 +219,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>74.709999999999994</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>74.28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1451,12 +1447,12 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>0.2</v>
       </c>
       <c r="B8">
@@ -1582,7 +1578,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1937,7 +1933,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1E-3</v>
       </c>
@@ -1962,8 +1958,11 @@
       <c r="J28">
         <v>74.459999999999994</v>
       </c>
-      <c r="K28" s="3">
+      <c r="K28">
         <v>74.709999999999994</v>
+      </c>
+      <c r="L28">
+        <v>74.28</v>
       </c>
     </row>
   </sheetData>
